--- a/改修資材計算シート_私家版.xlsx
+++ b/改修資材計算シート_私家版.xlsx
@@ -3,9 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="OYXT5ObhOAAGZ7IRjuF5/wREslNlbj4F9Jquh+veb1j015SMdeDl5K89f6xeaDaSovJFUdh3imyLPmY/abcdpA==" workbookSaltValue="hYKN+a86k566w3c+B4T4uQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="26205" windowHeight="5745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="26205" windowHeight="5745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改修箇所まとめ" sheetId="3" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="248">
   <si>
     <t>ネジ消費量</t>
     <rPh sb="2" eb="5">
@@ -1710,8 +1709,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>消費ネジ総量と、「買ったらいくらかかるか」を計算する数式を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらは完全にお遊び機能なので削除してかまわないと思います。なお、装備更新するかどうかは装備によってまちまちなので意図的に集計対象から外してあります。</t>
+    <rPh sb="4" eb="6">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ソウビコウシン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>イトテキ</t>
+    </rPh>
+    <rPh sb="61" eb="65">
+      <t>シュウケイタイショウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>「詳細版＋」シートの右下にあった装備一覧を装備分類・装備名の行列形式に整理し、
-「装備名」列のデータの入力規則に「=OFFSET($V$102,0,IFNA(MATCH(B5,$W$101:$AP$101,0),0),20,1)」を指定することで実現（シート右下の装備一覧表から「装備分類」列で選択した装備分類を検索し、見つかった位置に応じて選択範囲を右にズラす、という数式）。
+「装備名」列のデータの入力規則に「=OFFSET($V$102,0,IFERROR(MATCH(B5,$W$101:$AP$101,0),0),20,1)」を指定することで実現（シート右下の装備一覧表から「装備分類」列で選択した装備分類を検索し、見つかった位置に応じて選択範囲を右にズラす、という数式）。
 なお、シートの右下の装備一覧表において、装備分類のすぐ下の行から装備名を入力すると初期選択位置が装備名一覧の下になってしまって見づらい＆入力しづらいという問題があったので、これを回避するため、装備分類と装備名はわざと1行空けている。</t>
     <rPh sb="1" eb="3">
       <t>ショウサイ</t>
@@ -1761,196 +1816,140 @@
     <rPh sb="51" eb="55">
       <t>ニュウリョクキソク</t>
     </rPh>
-    <rPh sb="116" eb="118">
+    <rPh sb="119" eb="121">
       <t>シテイ</t>
     </rPh>
-    <rPh sb="123" eb="125">
+    <rPh sb="126" eb="128">
       <t>ジツゲン</t>
     </rPh>
-    <rPh sb="129" eb="131">
+    <rPh sb="132" eb="134">
       <t>ミギシタ</t>
     </rPh>
-    <rPh sb="132" eb="134">
+    <rPh sb="135" eb="137">
       <t>ソウビ</t>
     </rPh>
-    <rPh sb="134" eb="137">
+    <rPh sb="137" eb="140">
       <t>イチランヒョウ</t>
     </rPh>
-    <rPh sb="140" eb="142">
+    <rPh sb="143" eb="145">
       <t>ソウビ</t>
     </rPh>
-    <rPh sb="142" eb="144">
+    <rPh sb="145" eb="147">
       <t>ブンルイ</t>
     </rPh>
-    <rPh sb="145" eb="146">
+    <rPh sb="148" eb="149">
       <t>レツ</t>
     </rPh>
-    <rPh sb="147" eb="149">
+    <rPh sb="150" eb="152">
       <t>センタク</t>
     </rPh>
-    <rPh sb="151" eb="153">
+    <rPh sb="154" eb="156">
       <t>ソウビ</t>
     </rPh>
-    <rPh sb="153" eb="155">
+    <rPh sb="156" eb="158">
       <t>ブンルイ</t>
     </rPh>
-    <rPh sb="156" eb="158">
+    <rPh sb="159" eb="161">
       <t>ケンサク</t>
     </rPh>
-    <rPh sb="160" eb="161">
+    <rPh sb="163" eb="164">
       <t>ミ</t>
     </rPh>
-    <rPh sb="165" eb="167">
+    <rPh sb="168" eb="170">
       <t>イチ</t>
     </rPh>
-    <rPh sb="168" eb="169">
+    <rPh sb="171" eb="172">
       <t>オウ</t>
     </rPh>
-    <rPh sb="171" eb="175">
+    <rPh sb="174" eb="178">
       <t>センタクハンイ</t>
     </rPh>
-    <rPh sb="176" eb="177">
+    <rPh sb="179" eb="180">
       <t>ミギ</t>
     </rPh>
-    <rPh sb="185" eb="187">
+    <rPh sb="188" eb="190">
       <t>スウシキ</t>
     </rPh>
-    <rPh sb="201" eb="203">
+    <rPh sb="204" eb="206">
       <t>ソウビ</t>
     </rPh>
-    <rPh sb="203" eb="205">
+    <rPh sb="206" eb="208">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="205" eb="206">
+    <rPh sb="208" eb="209">
       <t>ヒョウ</t>
     </rPh>
-    <rPh sb="211" eb="213">
+    <rPh sb="214" eb="216">
       <t>ソウビ</t>
     </rPh>
-    <rPh sb="213" eb="215">
+    <rPh sb="216" eb="218">
       <t>ブンルイ</t>
     </rPh>
-    <rPh sb="218" eb="219">
+    <rPh sb="221" eb="222">
       <t>シタ</t>
     </rPh>
-    <rPh sb="220" eb="221">
+    <rPh sb="223" eb="224">
       <t>ギョウ</t>
     </rPh>
-    <rPh sb="223" eb="225">
+    <rPh sb="226" eb="228">
       <t>ソウビ</t>
     </rPh>
-    <rPh sb="225" eb="226">
+    <rPh sb="228" eb="229">
       <t>メイ</t>
     </rPh>
-    <rPh sb="227" eb="229">
+    <rPh sb="230" eb="232">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="232" eb="234">
+    <rPh sb="235" eb="237">
       <t>ショキ</t>
     </rPh>
-    <rPh sb="234" eb="236">
+    <rPh sb="237" eb="239">
       <t>センタク</t>
     </rPh>
-    <rPh sb="236" eb="238">
+    <rPh sb="239" eb="241">
       <t>イチ</t>
     </rPh>
-    <rPh sb="239" eb="241">
+    <rPh sb="242" eb="244">
       <t>ソウビ</t>
     </rPh>
-    <rPh sb="241" eb="242">
+    <rPh sb="244" eb="245">
       <t>メイ</t>
     </rPh>
-    <rPh sb="242" eb="244">
+    <rPh sb="245" eb="247">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="245" eb="246">
+    <rPh sb="248" eb="249">
       <t>シタ</t>
     </rPh>
-    <rPh sb="254" eb="255">
+    <rPh sb="257" eb="258">
       <t>ミ</t>
     </rPh>
-    <rPh sb="259" eb="261">
+    <rPh sb="262" eb="264">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="268" eb="270">
+    <rPh sb="271" eb="273">
       <t>モンダイ</t>
     </rPh>
-    <rPh sb="280" eb="282">
+    <rPh sb="283" eb="285">
       <t>カイヒ</t>
     </rPh>
-    <rPh sb="287" eb="289">
+    <rPh sb="290" eb="292">
       <t>ソウビ</t>
     </rPh>
-    <rPh sb="289" eb="291">
+    <rPh sb="292" eb="294">
       <t>ブンルイ</t>
     </rPh>
-    <rPh sb="292" eb="294">
+    <rPh sb="295" eb="297">
       <t>ソウビ</t>
     </rPh>
-    <rPh sb="294" eb="295">
+    <rPh sb="297" eb="298">
       <t>メイ</t>
     </rPh>
-    <rPh sb="300" eb="301">
+    <rPh sb="303" eb="304">
       <t>ギョウ</t>
     </rPh>
-    <rPh sb="301" eb="302">
+    <rPh sb="304" eb="305">
       <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費ネジ総量と、「買ったらいくらかかるか」を計算する数式を追加</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>スウシキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こちらは完全にお遊び機能なので削除してかまわないと思います。なお、装備更新するかどうかは装備によってまちまちなので意図的に集計対象から外してあります。</t>
-    <rPh sb="4" eb="6">
-      <t>カンゼン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アソ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="33" eb="37">
-      <t>ソウビコウシン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ソウビ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>イトテキ</t>
-    </rPh>
-    <rPh sb="61" eb="65">
-      <t>シュウケイタイショウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ハズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2739,7 +2738,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2761,7 +2760,7 @@
         <v>240</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -2774,10 +2773,10 @@
     </row>
     <row r="4" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>246</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -2796,7 +2795,7 @@
   <dimension ref="B1:AP119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2819,7 +2818,7 @@
     <col min="19" max="19" width="3.125" style="2" customWidth="1"/>
     <col min="20" max="20" width="28.5" style="2" customWidth="1"/>
     <col min="21" max="21" width="3.5" style="2" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="12.875" style="2" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="23.5" style="2" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="27.5" style="2" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="24.875" style="2" hidden="1" customWidth="1"/>
@@ -8156,9 +8155,7 @@
       <c r="X117" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC117" s="22" t="s">
-        <v>69</v>
-      </c>
+      <c r="AC117" s="22"/>
       <c r="AD117" s="22"/>
       <c r="AE117" s="22"/>
     </row>
@@ -8195,7 +8192,7 @@
       <formula1>$W$101:$AP$101</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C73" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>OFFSET($V$102,0,_xlfn.IFNA(MATCH(B4,$W$101:$AP$101,0),0),20,1)</formula1>
+      <formula1>OFFSET($V$102,0,IFERROR(MATCH(B4,$W$101:$AP$101,0),0),20,1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E73" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$U$101:$U$111</formula1>
@@ -8211,7 +8208,7 @@
   <dimension ref="A1:U112"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y100" sqref="Y100"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/改修資材計算シート_私家版.xlsx
+++ b/改修資材計算シート_私家版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="26205" windowHeight="5745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="26205" windowHeight="5745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改修箇所まとめ" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="262">
   <si>
     <t>ネジ消費量</t>
     <rPh sb="2" eb="5">
@@ -253,13 +253,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>12.7cm連装高角砲</t>
-    <rPh sb="6" eb="11">
-      <t>レンソウコウカｋ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>8cm高角砲</t>
     <rPh sb="3" eb="6">
       <t>コウカクホウ</t>
@@ -1417,10 +1410,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>F4F-4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>F6F-3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1447,18 +1436,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>25mm単装機銃</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>潜水艦搭載電探＆水防式望遠鏡</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>更新時※</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -1469,16 +1446,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>15.5cm三連装副砲改</t>
-    <rPh sb="6" eb="11">
-      <t>サンレンソウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>零式艦戦63型(爆戦)</t>
   </si>
   <si>
@@ -1590,9 +1557,6 @@
   <si>
     <t>　▼バルジ</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8cm高角砲改＋増設機銃</t>
   </si>
   <si>
     <t>大発動艇</t>
@@ -1952,6 +1916,146 @@
       <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15.5cm三連装砲改</t>
+    <rPh sb="10" eb="11">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>203mm/53 連装砲</t>
+    <rPh sb="9" eb="12">
+      <t>レンソウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>38.1cm Mk.I連装砲</t>
+    <rPh sb="11" eb="14">
+      <t>レンソウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>38.1cm Mk.I／N連装砲改</t>
+    <rPh sb="13" eb="16">
+      <t>レンソウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>41cm三連装砲改</t>
+    <rPh sb="4" eb="8">
+      <t>サンレンソウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>12.7cm連装高角砲</t>
+    <rPh sb="6" eb="11">
+      <t>レンソウコウカｋ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>8cm高角砲</t>
+    <rPh sb="3" eb="6">
+      <t>コウカクホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>8cm高角砲改+増設機銃</t>
+    <rPh sb="3" eb="6">
+      <t>コウカクホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ゾウセツキジュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>15.5cm三連装副砲</t>
+    <rPh sb="6" eb="11">
+      <t>サンレンソウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>15.5cm三連装副砲改</t>
+    <rPh sb="6" eb="11">
+      <t>サンレンソウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>15.2cm三連装砲</t>
+    <rPh sb="6" eb="10">
+      <t>サンレンソウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>F4F-4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F6F-5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紫電改二</t>
+    <rPh sb="0" eb="4">
+      <t>シデンカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新型砲熕兵装資材</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>15.2cm三連装砲</t>
+    <rPh sb="6" eb="10">
+      <t>サンレンソウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>15.5cm三連装副砲</t>
+    <rPh sb="6" eb="11">
+      <t>サンレンソウフクホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>25mm単装機銃</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>潜水艦搭載電探＆水防式望遠鏡</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F6F-5</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +2065,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1992,6 +2096,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -2738,7 +2850,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2749,34 +2861,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="225" x14ac:dyDescent="0.4">
       <c r="A2" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>240</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="34" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -2795,7 +2907,7 @@
   <dimension ref="B1:AP119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2835,15 +2947,15 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G1" s="32">
         <f>SUM(F4:G73)</f>
-        <v>2046</v>
+        <v>1978</v>
       </c>
       <c r="H1" s="38">
         <f>G1*70</f>
-        <v>143220</v>
+        <v>138460</v>
       </c>
       <c r="I1" s="38"/>
     </row>
@@ -2878,7 +2990,7 @@
     </row>
     <row r="3" spans="2:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>4</v>
@@ -2908,11 +3020,11 @@
         <v>9</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M3" s="36"/>
       <c r="N3" s="35" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O3" s="36"/>
       <c r="P3" s="35" t="s">
@@ -2920,7 +3032,7 @@
       </c>
       <c r="Q3" s="36"/>
       <c r="R3" s="35" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S3" s="36"/>
     </row>
@@ -3403,7 +3515,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="11">
         <v>6</v>
@@ -3543,7 +3655,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="11">
         <v>5</v>
@@ -3815,7 +3927,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="11">
         <v>0</v>
@@ -3885,7 +3997,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="11">
         <v>0</v>
@@ -3955,7 +4067,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D19" s="11">
         <v>0</v>
@@ -4084,10 +4196,10 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="11">
         <v>10</v>
@@ -4154,10 +4266,10 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="11">
         <v>6</v>
@@ -4224,10 +4336,10 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="11">
         <v>10</v>
@@ -4294,10 +4406,10 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="11">
         <v>10</v>
@@ -4364,10 +4476,10 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="11">
         <v>8</v>
@@ -4434,10 +4546,10 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B26" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="11">
         <v>6</v>
@@ -4504,10 +4616,10 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" s="11">
         <v>6</v>
@@ -4574,10 +4686,10 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="11">
         <v>6</v>
@@ -4644,10 +4756,10 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B29" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="11">
         <v>6</v>
@@ -4714,10 +4826,10 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="11">
         <v>6</v>
@@ -4784,10 +4896,10 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="11">
         <v>6</v>
@@ -4916,10 +5028,10 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="11">
         <v>0</v>
@@ -5048,10 +5160,10 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="11">
         <v>1</v>
@@ -5118,10 +5230,10 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="11">
         <v>6</v>
@@ -5188,10 +5300,10 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="11">
         <v>0</v>
@@ -5258,10 +5370,10 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B38" s="11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="11">
         <v>4</v>
@@ -5390,10 +5502,10 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B40" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="11">
         <v>8</v>
@@ -5522,10 +5634,10 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" s="11">
         <v>6</v>
@@ -5533,25 +5645,25 @@
       <c r="E42" s="12">
         <v>10</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="13" t="str">
         <f>IFERROR(IF(E42&lt;=D42,"",IF(D42&gt;6,VLOOKUP($C42,DATA!$A$1:$U$112,4,0)*(E42-D42),IF(E42&gt;6,VLOOKUP($C42,DATA!$A$1:$U$112,4,0)*(E42-6)+VLOOKUP($C42,DATA!$A$1:$U$112,2,0)*(6-D42),VLOOKUP($C42,DATA!$A$1:$U$112,2,0)*(E42-D42)))),"")</f>
-        <v>28</v>
-      </c>
-      <c r="G42" s="14">
+        <v/>
+      </c>
+      <c r="G42" s="14" t="str">
         <f>IFERROR(IF(OR(E42&lt;=D42,E42&lt;=6),"",IF(D42&gt;6,VLOOKUP($C42,DATA!$A$1:$U$112,5,0)*(E42-D42),IF(E42&gt;6,VLOOKUP($C42,DATA!$A$1:$U$112,5,0)*(E42-6)+VLOOKUP($C42,DATA!$A$1:$U$112,2,0)*(6-D42),VLOOKUP($C42,DATA!$A$1:$U$112,2,0)*(E42-D42)))),"")</f>
-        <v>40</v>
+        <v/>
       </c>
       <c r="H42" s="15" t="str">
         <f>IFERROR(IF(E42&lt;&gt;10,"",IF(ISBLANK(VLOOKUP(C42,DATA!$A$1:$U$112,6,0)),"","＋"&amp;VLOOKUP(C42,DATA!$A$1:$U$112,7,0))),"")</f>
         <v/>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="16" t="str">
         <f>IFERROR(IF(E42&lt;=D42,"",IF(D42&gt;6,VLOOKUP($C42,DATA!$A$1:$U$112,10,0)*(E42-D42),IF(E42&gt;6,VLOOKUP($C42,DATA!$A$1:$U$112,10,0)*(E42-6)+VLOOKUP($C42,DATA!$A$1:$U$112,8,0)*(6-D42),VLOOKUP($C42,DATA!$A$1:$U$112,8,0)*(E42-D42)))),"")</f>
-        <v>56</v>
-      </c>
-      <c r="J42" s="14">
+        <v/>
+      </c>
+      <c r="J42" s="14" t="str">
         <f>IFERROR(IF(OR(E42&lt;=D42,E42&lt;=6),"",IF(D42&gt;6,VLOOKUP($C42,DATA!$A$1:$U$112,11,0)*(E42-D42),IF(E42&gt;6,VLOOKUP($C42,DATA!$A$1:$U$112,11,0)*(E42-6)+VLOOKUP($C42,DATA!$A$1:$U$112,8,0)*(6-D42),VLOOKUP($C42,DATA!$A$1:$U$112,8,0)*(E42-D42)))),"")</f>
-        <v>72</v>
+        <v/>
       </c>
       <c r="K42" s="15" t="str">
         <f>IFERROR(IF(E42&lt;&gt;10,"",IF(ISBLANK(VLOOKUP(C42,DATA!$A$1:$U$112,6,0)),"","＋"&amp;VLOOKUP(C42,DATA!$A$1:$U$112,13,0))),"")</f>
@@ -5567,11 +5679,11 @@
       </c>
       <c r="N42" s="18" t="str">
         <f>IFERROR(IF(OR(E42&lt;7,ISBLANK(E42),D42&gt;=E42),"",VLOOKUP(C42,DATA!$A$1:$U$112,16,0)),"")</f>
-        <v>32号対水上電探</v>
-      </c>
-      <c r="O42" s="18">
+        <v/>
+      </c>
+      <c r="O42" s="18" t="str">
         <f>IFERROR(IF(OR(E42&lt;7,ISBLANK(E42),D42&gt;=E42),"",VLOOKUP(C42,DATA!$A$1:$U$112,17,0)*IF(D42&lt;=6,(E42-6),E42-D42)),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="P42" s="18" t="str">
         <f>IFERROR(IF(OR(E42&lt;&gt;10,ISBLANK(E42)),"",IF(ISBLANK(VLOOKUP(C42,DATA!$A$1:$U$112,18,0)),"",VLOOKUP(C42,DATA!$A$1:$U$112,18,0))),"")</f>
@@ -5592,10 +5704,10 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -5724,10 +5836,10 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="11">
         <v>6</v>
@@ -5794,10 +5906,10 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="11">
         <v>3</v>
@@ -5864,10 +5976,10 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="11">
         <v>0</v>
@@ -5996,10 +6108,10 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B49" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" s="11">
         <v>6</v>
@@ -6066,10 +6178,10 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B50" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" s="11">
         <v>6</v>
@@ -6136,10 +6248,10 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B51" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="11">
         <v>6</v>
@@ -6268,10 +6380,10 @@
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="11">
         <v>10</v>
@@ -6338,10 +6450,10 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54" s="11">
         <v>7</v>
@@ -6470,10 +6582,10 @@
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="11">
         <v>10</v>
@@ -6602,10 +6714,10 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B58" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" s="11">
         <v>4</v>
@@ -6672,10 +6784,10 @@
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B59" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59" s="11">
         <v>6</v>
@@ -6742,10 +6854,10 @@
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B60" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D60" s="11">
         <v>6</v>
@@ -6812,10 +6924,10 @@
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B61" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D61" s="11">
         <v>1</v>
@@ -6882,10 +6994,10 @@
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B62" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D62" s="11">
         <v>0</v>
@@ -7014,10 +7126,10 @@
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D64" s="11">
         <v>6</v>
@@ -7084,10 +7196,10 @@
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D65" s="11">
         <v>4</v>
@@ -7154,10 +7266,10 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B66" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D66" s="11">
         <v>4</v>
@@ -7664,22 +7776,22 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C76" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C77" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C78" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C79" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="21:42" x14ac:dyDescent="0.4">
@@ -7696,55 +7808,55 @@
         <v>41</v>
       </c>
       <c r="Z101" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA101" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB101" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC101" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD101" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE101" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF101" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG101" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH101" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI101" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AA101" s="2" t="s">
+      <c r="AJ101" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AB101" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC101" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD101" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE101" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF101" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG101" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH101" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI101" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ101" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="AK101" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL101" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM101" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AN101" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO101" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP101" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="21:42" x14ac:dyDescent="0.4">
@@ -7766,58 +7878,58 @@
         <v>26</v>
       </c>
       <c r="Y103" s="2" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="Z103" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA103" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB103" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC103" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD103" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE103" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF103" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH103" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI103" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ103" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK103" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL103" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AM103" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AN103" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO103" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP103" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="21:42" x14ac:dyDescent="0.4">
@@ -7831,53 +7943,53 @@
         <v>27</v>
       </c>
       <c r="Y104" s="2" t="s">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="Z104" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA104" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB104" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC104" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD104" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE104" s="22"/>
       <c r="AF104" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG104" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH104" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI104" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ104" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL104" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AM104" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN104" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AO104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP104" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="21:42" x14ac:dyDescent="0.4">
@@ -7891,44 +8003,44 @@
         <v>28</v>
       </c>
       <c r="Y105" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="Z105" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA105" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC105" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD105" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AE105" s="22"/>
       <c r="AG105" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ105" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL105" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM105" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN105" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO105" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AP105" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="21:42" x14ac:dyDescent="0.4">
@@ -7942,36 +8054,36 @@
         <v>29</v>
       </c>
       <c r="Y106" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z106" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA106" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC106" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD106" s="22"/>
       <c r="AE106" s="22"/>
       <c r="AJ106" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL106" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM106" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN106" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AO106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP106" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="21:42" x14ac:dyDescent="0.4">
@@ -7985,27 +8097,27 @@
         <v>30</v>
       </c>
       <c r="Y107" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA107" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC107" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD107" s="22"/>
       <c r="AE107" s="22"/>
       <c r="AL107" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN107" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO107" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP107" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="21:42" x14ac:dyDescent="0.4">
@@ -8019,21 +8131,21 @@
         <v>31</v>
       </c>
       <c r="Y108" s="2" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="AC108" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD108" s="22"/>
       <c r="AE108" s="22"/>
       <c r="AN108" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AO108" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AP108" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="21:42" x14ac:dyDescent="0.4">
@@ -8047,15 +8159,15 @@
         <v>32</v>
       </c>
       <c r="Y109" s="2" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="AC109" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD109" s="22"/>
       <c r="AE109" s="22"/>
       <c r="AP109" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="21:42" x14ac:dyDescent="0.4">
@@ -8066,18 +8178,18 @@
         <v>20</v>
       </c>
       <c r="X110" s="2" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="Y110" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC110" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD110" s="22"/>
       <c r="AE110" s="22"/>
       <c r="AP110" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="21:42" x14ac:dyDescent="0.4">
@@ -8085,16 +8197,19 @@
         <v>10</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>34</v>
+        <v>244</v>
+      </c>
+      <c r="Y111" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="AC111" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AP111" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="21:42" x14ac:dyDescent="0.4">
@@ -8105,7 +8220,7 @@
         <v>35</v>
       </c>
       <c r="AC112" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="23:31" x14ac:dyDescent="0.4">
@@ -8116,7 +8231,7 @@
         <v>36</v>
       </c>
       <c r="AC113" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="23:31" x14ac:dyDescent="0.4">
@@ -8124,29 +8239,29 @@
         <v>23</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="AC114" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="23:31" x14ac:dyDescent="0.4">
       <c r="W115" s="2" t="s">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="X115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="AC115" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="23:31" x14ac:dyDescent="0.4">
       <c r="X116" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC116" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AD116" s="22"/>
       <c r="AE116" s="22"/>
@@ -8155,7 +8270,9 @@
       <c r="X117" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC117" s="22"/>
+      <c r="AC117" s="22" t="s">
+        <v>261</v>
+      </c>
       <c r="AD117" s="22"/>
       <c r="AE117" s="22"/>
     </row>
@@ -8176,6 +8293,7 @@
       <c r="AE119" s="22"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="EfCnLQbZjaCDdwBzsZyTcVe4/m5pf+uD9oM0Jvapa/EbyHYWhY50VVyXxZxZ02EPizni1bSlx+yM4eFuEgfnPg==" saltValue="voyvo9NbK8NrGW3Q8B1PRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L2:S2"/>
@@ -8205,7 +8323,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U112"/>
+  <dimension ref="A1:U114"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="V1" sqref="V1"/>
@@ -8213,20 +8331,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="23" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="2.5" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="3.5" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="23" hidden="1" customWidth="1"/>
-    <col min="9" max="13" width="3.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19.625" style="23" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="19.625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="21.875" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5" style="2" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="20.625" style="23" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="2.5" style="26" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="23" customWidth="1"/>
+    <col min="3" max="4" width="2.5" style="2" customWidth="1"/>
+    <col min="5" max="7" width="3.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.5" style="23" customWidth="1"/>
+    <col min="9" max="13" width="3.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="2.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="2.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="2.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.625" style="23" customWidth="1"/>
+    <col min="21" max="21" width="2.5" style="26" customWidth="1"/>
     <col min="22" max="16384" width="12.875" style="2"/>
   </cols>
   <sheetData>
@@ -8347,7 +8465,7 @@
         <v>8</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="2">
         <v>2</v>
@@ -8488,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S6" s="2">
         <v>1</v>
@@ -8582,13 +8700,13 @@
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S8" s="2">
         <v>2</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U8" s="26">
         <v>1</v>
@@ -8596,7 +8714,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="23">
         <v>4</v>
@@ -8635,19 +8753,19 @@
         <v>10</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O9" s="2">
         <v>2</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q9" s="2">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S9" s="2">
         <v>1</v>
@@ -8823,13 +8941,13 @@
         <v>8</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O13" s="2">
         <v>2</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="2">
         <v>1</v>
@@ -8890,7 +9008,7 @@
     </row>
     <row r="15" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="28">
         <v>2</v>
@@ -8933,7 +9051,7 @@
     </row>
     <row r="16" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="28">
         <v>3</v>
@@ -8960,13 +9078,13 @@
         <v>9</v>
       </c>
       <c r="N16" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O16" s="22">
         <v>2</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="22">
         <v>3</v>
@@ -9131,7 +9249,7 @@
         <v>2</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S19" s="22">
         <v>2</v>
@@ -9223,7 +9341,7 @@
         <v>15</v>
       </c>
       <c r="N21" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O21" s="22">
         <v>2</v>
@@ -9235,7 +9353,7 @@
         <v>2</v>
       </c>
       <c r="R21" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S21" s="22">
         <v>2</v>
@@ -9272,7 +9390,7 @@
         <v>8</v>
       </c>
       <c r="N22" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O22" s="22">
         <v>1</v>
@@ -9339,13 +9457,13 @@
         <v>2</v>
       </c>
       <c r="R23" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S23" s="22">
         <v>2</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U23" s="29">
         <v>2</v>
@@ -9353,7 +9471,7 @@
     </row>
     <row r="24" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="28">
         <v>4</v>
@@ -9404,13 +9522,13 @@
         <v>3</v>
       </c>
       <c r="R24" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S24" s="22">
         <v>2</v>
       </c>
       <c r="T24" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U24" s="29">
         <v>2</v>
@@ -9418,7 +9536,7 @@
     </row>
     <row r="25" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="28">
         <v>6</v>
@@ -9445,13 +9563,13 @@
         <v>12</v>
       </c>
       <c r="N25" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O25" s="22">
         <v>2</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="22">
         <v>2</v>
@@ -9461,7 +9579,7 @@
     </row>
     <row r="26" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="28">
         <v>6</v>
@@ -9500,19 +9618,19 @@
         <v>28</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O26" s="22">
         <v>3</v>
       </c>
       <c r="P26" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>3</v>
+      </c>
+      <c r="R26" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="Q26" s="22">
-        <v>3</v>
-      </c>
-      <c r="R26" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="S26" s="22">
         <v>2</v>
@@ -9522,7 +9640,7 @@
     </row>
     <row r="27" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="28">
         <v>8</v>
@@ -9549,13 +9667,13 @@
         <v>24</v>
       </c>
       <c r="N27" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O27" s="22">
         <v>2</v>
       </c>
       <c r="P27" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q27" s="22">
         <v>2</v>
@@ -9712,7 +9830,7 @@
     </row>
     <row r="31" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="28">
         <v>2</v>
@@ -9751,19 +9869,19 @@
         <v>15</v>
       </c>
       <c r="N31" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="O31" s="22">
+        <v>1</v>
+      </c>
+      <c r="P31" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q31" s="22">
+        <v>2</v>
+      </c>
+      <c r="R31" s="22" t="s">
         <v>132</v>
-      </c>
-      <c r="O31" s="22">
-        <v>1</v>
-      </c>
-      <c r="P31" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q31" s="22">
-        <v>2</v>
-      </c>
-      <c r="R31" s="22" t="s">
-        <v>133</v>
       </c>
       <c r="S31" s="22">
         <v>3</v>
@@ -9773,7 +9891,7 @@
     </row>
     <row r="32" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" s="28">
         <v>3</v>
@@ -9800,13 +9918,13 @@
         <v>9</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O32" s="22">
         <v>1</v>
       </c>
       <c r="P32" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q32" s="22">
         <v>2</v>
@@ -9816,7 +9934,7 @@
     </row>
     <row r="33" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" s="28">
         <v>3</v>
@@ -9843,13 +9961,13 @@
         <v>9</v>
       </c>
       <c r="N33" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="O33" s="22">
+        <v>1</v>
+      </c>
+      <c r="P33" s="22" t="s">
         <v>136</v>
-      </c>
-      <c r="O33" s="22">
-        <v>1</v>
-      </c>
-      <c r="P33" s="22" t="s">
-        <v>137</v>
       </c>
       <c r="Q33" s="22">
         <v>1</v>
@@ -9859,7 +9977,7 @@
     </row>
     <row r="34" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" s="28">
         <v>1</v>
@@ -9898,19 +10016,19 @@
         <v>10</v>
       </c>
       <c r="N34" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O34" s="22">
         <v>1</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q34" s="22">
         <v>1</v>
       </c>
       <c r="R34" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S34" s="22">
         <v>2</v>
@@ -9920,7 +10038,7 @@
     </row>
     <row r="35" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="28">
         <v>3</v>
@@ -9959,19 +10077,19 @@
         <v>40</v>
       </c>
       <c r="N35" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O35" s="22">
         <v>1</v>
       </c>
       <c r="P35" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q35" s="22">
         <v>2</v>
       </c>
       <c r="R35" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S35" s="22">
         <v>1</v>
@@ -9981,7 +10099,7 @@
     </row>
     <row r="36" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="28">
         <v>3</v>
@@ -10020,25 +10138,25 @@
         <v>24</v>
       </c>
       <c r="N36" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O36" s="22">
         <v>1</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q36" s="22">
         <v>1</v>
       </c>
       <c r="R36" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S36" s="22">
         <v>2</v>
       </c>
       <c r="T36" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U36" s="29">
         <v>1</v>
@@ -10046,7 +10164,7 @@
     </row>
     <row r="37" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A37" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B37" s="28">
         <v>5</v>
@@ -10073,13 +10191,13 @@
         <v>10</v>
       </c>
       <c r="N37" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O37" s="22">
         <v>1</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q37" s="22">
         <v>2</v>
@@ -10089,7 +10207,7 @@
     </row>
     <row r="38" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B38" s="28">
         <v>6</v>
@@ -10116,13 +10234,13 @@
         <v>16</v>
       </c>
       <c r="N38" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O38" s="22">
         <v>2</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q38" s="22">
         <v>3</v>
@@ -10132,7 +10250,7 @@
     </row>
     <row r="39" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A39" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="28">
         <v>4</v>
@@ -10159,13 +10277,13 @@
         <v>18</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O39" s="22">
         <v>2</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q39" s="22">
         <v>1</v>
@@ -10175,7 +10293,7 @@
     </row>
     <row r="40" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A40" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="28">
         <v>5</v>
@@ -10214,19 +10332,19 @@
         <v>12</v>
       </c>
       <c r="N40" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O40" s="22">
         <v>2</v>
       </c>
       <c r="P40" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q40" s="22">
         <v>2</v>
       </c>
       <c r="R40" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S40" s="22">
         <v>2</v>
@@ -10236,7 +10354,7 @@
     </row>
     <row r="41" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A41" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" s="28">
         <v>7</v>
@@ -10263,13 +10381,13 @@
         <v>8</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O41" s="22">
         <v>2</v>
       </c>
       <c r="P41" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q41" s="22">
         <v>3</v>
@@ -10279,7 +10397,7 @@
     </row>
     <row r="42" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B42" s="28">
         <v>6</v>
@@ -10306,13 +10424,13 @@
         <v>17</v>
       </c>
       <c r="N42" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O42" s="22">
         <v>1</v>
       </c>
       <c r="P42" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q42" s="22">
         <v>1</v>
@@ -10322,7 +10440,7 @@
     </row>
     <row r="43" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A43" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B43" s="28">
         <v>1</v>
@@ -10361,19 +10479,19 @@
         <v>6</v>
       </c>
       <c r="N43" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="O43" s="22">
+        <v>1</v>
+      </c>
+      <c r="P43" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="O43" s="22">
-        <v>1</v>
-      </c>
-      <c r="P43" s="22" t="s">
+      <c r="Q43" s="22">
+        <v>1</v>
+      </c>
+      <c r="R43" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="Q43" s="22">
-        <v>1</v>
-      </c>
-      <c r="R43" s="22" t="s">
-        <v>147</v>
       </c>
       <c r="S43" s="22">
         <v>2</v>
@@ -10383,7 +10501,7 @@
     </row>
     <row r="44" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A44" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="28">
         <v>2</v>
@@ -10422,19 +10540,19 @@
         <v>7</v>
       </c>
       <c r="N44" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="22">
         <v>1</v>
       </c>
       <c r="P44" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q44" s="22">
         <v>2</v>
       </c>
       <c r="R44" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S44" s="22">
         <v>2</v>
@@ -10444,7 +10562,7 @@
     </row>
     <row r="45" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A45" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" s="28">
         <v>2</v>
@@ -10483,19 +10601,19 @@
         <v>7</v>
       </c>
       <c r="N45" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="22">
         <v>2</v>
       </c>
       <c r="P45" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q45" s="22">
         <v>3</v>
       </c>
       <c r="R45" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S45" s="22">
         <v>3</v>
@@ -10505,7 +10623,7 @@
     </row>
     <row r="46" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A46" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" s="28">
         <v>2</v>
@@ -10544,19 +10662,19 @@
         <v>8</v>
       </c>
       <c r="N46" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O46" s="22">
         <v>1</v>
       </c>
       <c r="P46" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q46" s="22">
         <v>2</v>
       </c>
       <c r="R46" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S46" s="22">
         <v>1</v>
@@ -10566,7 +10684,7 @@
     </row>
     <row r="47" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" s="28">
         <v>2</v>
@@ -10605,19 +10723,19 @@
         <v>8</v>
       </c>
       <c r="N47" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O47" s="22">
         <v>2</v>
       </c>
       <c r="P47" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q47" s="22">
         <v>3</v>
       </c>
       <c r="R47" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S47" s="22">
         <v>2</v>
@@ -10627,7 +10745,7 @@
     </row>
     <row r="48" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A48" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B48" s="28">
         <v>3</v>
@@ -10654,13 +10772,13 @@
         <v>8</v>
       </c>
       <c r="N48" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="22">
         <v>1</v>
       </c>
       <c r="P48" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q48" s="22">
         <v>2</v>
@@ -10670,7 +10788,7 @@
     </row>
     <row r="49" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A49" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="28">
         <v>3</v>
@@ -10697,13 +10815,13 @@
         <v>9</v>
       </c>
       <c r="N49" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="22">
         <v>2</v>
       </c>
       <c r="P49" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q49" s="22">
         <v>3</v>
@@ -10713,7 +10831,7 @@
     </row>
     <row r="50" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A50" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" s="28">
         <v>3</v>
@@ -10740,13 +10858,13 @@
         <v>9</v>
       </c>
       <c r="N50" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="22">
         <v>2</v>
       </c>
       <c r="P50" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q50" s="22">
         <v>2</v>
@@ -10756,7 +10874,7 @@
     </row>
     <row r="51" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A51" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B51" s="28">
         <v>3</v>
@@ -10783,13 +10901,13 @@
         <v>9</v>
       </c>
       <c r="N51" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="22">
         <v>2</v>
       </c>
       <c r="P51" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q51" s="22">
         <v>3</v>
@@ -10799,7 +10917,7 @@
     </row>
     <row r="52" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A52" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B52" s="28">
         <v>3</v>
@@ -10826,13 +10944,13 @@
         <v>9</v>
       </c>
       <c r="N52" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O52" s="22">
         <v>2</v>
       </c>
       <c r="P52" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q52" s="22">
         <v>2</v>
@@ -10842,7 +10960,7 @@
     </row>
     <row r="53" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A53" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53" s="28">
         <v>3</v>
@@ -10881,19 +10999,19 @@
         <v>22</v>
       </c>
       <c r="N53" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O53" s="22">
         <v>2</v>
       </c>
       <c r="P53" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q53" s="22">
         <v>2</v>
       </c>
       <c r="R53" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S53" s="22">
         <v>1</v>
@@ -10903,7 +11021,7 @@
     </row>
     <row r="54" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A54" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B54" s="28">
         <v>4</v>
@@ -10930,13 +11048,13 @@
         <v>9</v>
       </c>
       <c r="N54" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O54" s="22">
         <v>3</v>
       </c>
       <c r="P54" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q54" s="22">
         <v>1</v>
@@ -10946,7 +11064,7 @@
     </row>
     <row r="55" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A55" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" s="28">
         <v>3</v>
@@ -10973,13 +11091,13 @@
         <v>9</v>
       </c>
       <c r="N55" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O55" s="22">
         <v>2</v>
       </c>
       <c r="P55" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q55" s="22">
         <v>3</v>
@@ -10989,7 +11107,7 @@
     </row>
     <row r="56" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A56" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" s="28">
         <v>3</v>
@@ -11016,13 +11134,13 @@
         <v>9</v>
       </c>
       <c r="N56" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O56" s="22">
         <v>2</v>
       </c>
       <c r="P56" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q56" s="22">
         <v>3</v>
@@ -11032,7 +11150,7 @@
     </row>
     <row r="57" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A57" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B57" s="28">
         <v>2</v>
@@ -11072,13 +11190,13 @@
       </c>
       <c r="N57" s="28"/>
       <c r="P57" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q57" s="22">
         <v>1</v>
       </c>
       <c r="R57" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S57" s="22">
         <v>2</v>
@@ -11088,7 +11206,7 @@
     </row>
     <row r="58" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A58" s="22" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B58" s="28">
         <v>3</v>
@@ -11127,19 +11245,19 @@
         <v>16</v>
       </c>
       <c r="N58" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O58" s="22">
         <v>1</v>
       </c>
       <c r="P58" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q58" s="22">
         <v>1</v>
       </c>
       <c r="R58" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S58" s="22">
         <v>2</v>
@@ -11149,7 +11267,7 @@
     </row>
     <row r="59" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A59" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B59" s="28">
         <v>4</v>
@@ -11163,6 +11281,12 @@
       <c r="E59" s="22">
         <v>8</v>
       </c>
+      <c r="F59" s="22">
+        <v>8</v>
+      </c>
+      <c r="G59" s="22">
+        <v>16</v>
+      </c>
       <c r="H59" s="28">
         <v>6</v>
       </c>
@@ -11175,285 +11299,297 @@
       <c r="K59" s="22">
         <v>10</v>
       </c>
+      <c r="L59" s="22">
+        <v>12</v>
+      </c>
+      <c r="M59" s="22">
+        <v>18</v>
+      </c>
       <c r="N59" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O59" s="22">
         <v>2</v>
       </c>
       <c r="P59" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q59" s="22">
         <v>1</v>
+      </c>
+      <c r="R59" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="S59" s="22">
+        <v>2</v>
       </c>
       <c r="T59" s="28"/>
       <c r="U59" s="29"/>
     </row>
     <row r="60" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A60" s="22" t="s">
-        <v>69</v>
+        <v>253</v>
       </c>
       <c r="B60" s="28">
         <v>6</v>
       </c>
       <c r="C60" s="22">
+        <v>7</v>
+      </c>
+      <c r="D60" s="22">
         <v>8</v>
       </c>
-      <c r="D60" s="22">
-        <v>7</v>
-      </c>
       <c r="E60" s="22">
-        <v>10</v>
-      </c>
-      <c r="F60" s="22">
-        <v>10</v>
-      </c>
-      <c r="G60" s="22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="28">
         <v>8</v>
       </c>
       <c r="I60" s="22">
+        <v>9</v>
+      </c>
+      <c r="J60" s="22">
+        <v>12</v>
+      </c>
+      <c r="K60" s="22">
+        <v>16</v>
+      </c>
+      <c r="N60" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="O60" s="22">
+        <v>2</v>
+      </c>
+      <c r="P60" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q60" s="22">
+        <v>1</v>
+      </c>
+      <c r="T60" s="28"/>
+      <c r="U60" s="29"/>
+    </row>
+    <row r="61" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="28">
+        <v>6</v>
+      </c>
+      <c r="C61" s="22">
+        <v>8</v>
+      </c>
+      <c r="D61" s="22">
+        <v>7</v>
+      </c>
+      <c r="E61" s="22">
         <v>10</v>
       </c>
-      <c r="J60" s="22">
+      <c r="F61" s="22">
         <v>10</v>
       </c>
-      <c r="K60" s="22">
+      <c r="G61" s="22">
+        <v>13</v>
+      </c>
+      <c r="H61" s="28">
+        <v>8</v>
+      </c>
+      <c r="I61" s="22">
+        <v>10</v>
+      </c>
+      <c r="J61" s="22">
+        <v>10</v>
+      </c>
+      <c r="K61" s="22">
         <v>15</v>
       </c>
-      <c r="L60" s="22">
+      <c r="L61" s="22">
         <v>20</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M61" s="22">
         <v>30</v>
       </c>
-      <c r="N60" s="28" t="s">
+      <c r="N61" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="O61" s="22">
+        <v>1</v>
+      </c>
+      <c r="P61" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q61" s="22">
+        <v>1</v>
+      </c>
+      <c r="T61" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="O60" s="22">
-        <v>1</v>
-      </c>
-      <c r="P60" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q60" s="22">
-        <v>1</v>
-      </c>
-      <c r="T60" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="U60" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61" s="23">
-        <v>2</v>
-      </c>
-      <c r="C61" s="2">
-        <v>3</v>
-      </c>
-      <c r="D61" s="2">
-        <v>3</v>
-      </c>
-      <c r="E61" s="2">
-        <v>4</v>
-      </c>
-      <c r="F61" s="2">
-        <v>6</v>
-      </c>
-      <c r="G61" s="2">
-        <v>10</v>
-      </c>
-      <c r="H61" s="23">
-        <v>2</v>
-      </c>
-      <c r="I61" s="2">
-        <v>3</v>
-      </c>
-      <c r="J61" s="2">
-        <v>3</v>
-      </c>
-      <c r="K61" s="2">
-        <v>4</v>
-      </c>
-      <c r="L61" s="2">
-        <v>5</v>
-      </c>
-      <c r="M61" s="26">
-        <v>8</v>
-      </c>
-      <c r="N61" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="O61" s="30">
-        <v>1</v>
-      </c>
-      <c r="P61" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>1</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="S61" s="2">
+      <c r="U61" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="B62" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2">
         <v>3</v>
       </c>
       <c r="D62" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" s="2">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2">
+        <v>6</v>
+      </c>
+      <c r="G62" s="2">
+        <v>10</v>
+      </c>
+      <c r="H62" s="23">
+        <v>2</v>
+      </c>
+      <c r="I62" s="2">
+        <v>3</v>
+      </c>
+      <c r="J62" s="2">
+        <v>3</v>
+      </c>
+      <c r="K62" s="2">
+        <v>4</v>
+      </c>
+      <c r="L62" s="2">
         <v>5</v>
       </c>
-      <c r="F62" s="2">
+      <c r="M62" s="26">
         <v>8</v>
       </c>
-      <c r="G62" s="2">
-        <v>12</v>
-      </c>
-      <c r="H62" s="23">
-        <v>4</v>
-      </c>
-      <c r="I62" s="2">
-        <v>5</v>
-      </c>
-      <c r="J62" s="2">
-        <v>6</v>
-      </c>
-      <c r="K62" s="2">
-        <v>8</v>
-      </c>
-      <c r="L62" s="2">
-        <v>8</v>
-      </c>
-      <c r="M62" s="2">
-        <v>16</v>
-      </c>
-      <c r="N62" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="O62" s="22">
-        <v>1</v>
-      </c>
-      <c r="P62" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q62" s="22">
-        <v>2</v>
+      <c r="N62" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="O62" s="30">
+        <v>1</v>
+      </c>
+      <c r="P62" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>1</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="S62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="B63" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="2">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2">
         <v>5</v>
       </c>
-      <c r="D63" s="2">
+      <c r="F63" s="2">
+        <v>8</v>
+      </c>
+      <c r="G63" s="2">
+        <v>12</v>
+      </c>
+      <c r="H63" s="23">
+        <v>4</v>
+      </c>
+      <c r="I63" s="2">
+        <v>5</v>
+      </c>
+      <c r="J63" s="2">
         <v>6</v>
       </c>
-      <c r="E63" s="2">
+      <c r="K63" s="2">
         <v>8</v>
       </c>
-      <c r="H63" s="23">
+      <c r="L63" s="2">
+        <v>8</v>
+      </c>
+      <c r="M63" s="2">
+        <v>16</v>
+      </c>
+      <c r="N63" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="O63" s="22">
+        <v>1</v>
+      </c>
+      <c r="P63" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q63" s="22">
+        <v>2</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" s="23">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2">
         <v>6</v>
       </c>
-      <c r="I63" s="2">
+      <c r="E64" s="2">
         <v>8</v>
       </c>
-      <c r="J63" s="2">
+      <c r="H64" s="23">
+        <v>6</v>
+      </c>
+      <c r="I64" s="2">
         <v>8</v>
       </c>
-      <c r="K63" s="2">
+      <c r="J64" s="2">
+        <v>8</v>
+      </c>
+      <c r="K64" s="2">
         <v>15</v>
       </c>
-      <c r="N63" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="O63" s="22">
-        <v>2</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="28">
-        <v>1</v>
-      </c>
-      <c r="C64" s="22">
-        <v>2</v>
-      </c>
-      <c r="D64" s="22">
-        <v>1</v>
-      </c>
-      <c r="E64" s="22">
-        <v>2</v>
-      </c>
-      <c r="H64" s="28">
-        <v>1</v>
-      </c>
-      <c r="I64" s="22">
-        <v>2</v>
-      </c>
-      <c r="J64" s="22">
-        <v>2</v>
-      </c>
-      <c r="K64" s="22">
-        <v>3</v>
-      </c>
       <c r="N64" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O64" s="22">
-        <v>1</v>
-      </c>
-      <c r="P64" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q64" s="22">
-        <v>2</v>
-      </c>
-      <c r="T64" s="28"/>
-      <c r="U64" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A65" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B65" s="28">
         <v>1</v>
@@ -11462,19 +11598,13 @@
         <v>2</v>
       </c>
       <c r="D65" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="22">
-        <v>3</v>
-      </c>
-      <c r="F65" s="22">
-        <v>3</v>
-      </c>
-      <c r="G65" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H65" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="22">
         <v>2</v>
@@ -11485,202 +11615,210 @@
       <c r="K65" s="22">
         <v>3</v>
       </c>
-      <c r="L65" s="22">
-        <v>3</v>
-      </c>
-      <c r="M65" s="22">
-        <v>4</v>
-      </c>
-      <c r="N65" s="28"/>
+      <c r="N65" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="O65" s="22">
+        <v>1</v>
+      </c>
       <c r="P65" s="22" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="Q65" s="22">
-        <v>1</v>
-      </c>
-      <c r="R65" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="S65" s="22">
         <v>2</v>
       </c>
       <c r="T65" s="28"/>
       <c r="U65" s="29"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:21" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="28">
+        <v>1</v>
+      </c>
+      <c r="C66" s="22">
+        <v>2</v>
+      </c>
+      <c r="D66" s="22">
+        <v>2</v>
+      </c>
+      <c r="E66" s="22">
+        <v>3</v>
+      </c>
+      <c r="F66" s="22">
+        <v>3</v>
+      </c>
+      <c r="G66" s="22">
+        <v>5</v>
+      </c>
+      <c r="H66" s="28">
+        <v>2</v>
+      </c>
+      <c r="I66" s="22">
+        <v>2</v>
+      </c>
+      <c r="J66" s="22">
+        <v>2</v>
+      </c>
+      <c r="K66" s="22">
+        <v>3</v>
+      </c>
+      <c r="L66" s="22">
+        <v>3</v>
+      </c>
+      <c r="M66" s="22">
+        <v>4</v>
+      </c>
+      <c r="N66" s="28"/>
+      <c r="P66" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q66" s="22">
+        <v>1</v>
+      </c>
+      <c r="R66" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="S66" s="22">
+        <v>2</v>
+      </c>
+      <c r="T66" s="28"/>
+      <c r="U66" s="29"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="23">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2">
+        <v>4</v>
+      </c>
+      <c r="G67" s="2">
+        <v>8</v>
+      </c>
+      <c r="H67" s="23">
+        <v>2</v>
+      </c>
+      <c r="I67" s="2">
+        <v>2</v>
+      </c>
+      <c r="J67" s="2">
+        <v>2</v>
+      </c>
+      <c r="K67" s="2">
+        <v>3</v>
+      </c>
+      <c r="L67" s="2">
+        <v>8</v>
+      </c>
+      <c r="M67" s="2">
+        <v>12</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>1</v>
+      </c>
+      <c r="R67" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B66" s="23">
-        <v>2</v>
-      </c>
-      <c r="C66" s="2">
-        <v>3</v>
-      </c>
-      <c r="D66" s="2">
-        <v>2</v>
-      </c>
-      <c r="E66" s="2">
-        <v>4</v>
-      </c>
-      <c r="F66" s="2">
-        <v>4</v>
-      </c>
-      <c r="G66" s="2">
+      <c r="S67" s="2">
+        <v>2</v>
+      </c>
+      <c r="T67" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="U67" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A68" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="23">
+        <v>4</v>
+      </c>
+      <c r="C68" s="27">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2">
+        <v>7</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2</v>
+      </c>
+      <c r="G68" s="2">
+        <v>3</v>
+      </c>
+      <c r="H68" s="23">
+        <v>6</v>
+      </c>
+      <c r="I68" s="27">
+        <v>7</v>
+      </c>
+      <c r="J68" s="2">
         <v>8</v>
       </c>
-      <c r="H66" s="23">
-        <v>2</v>
-      </c>
-      <c r="I66" s="2">
-        <v>2</v>
-      </c>
-      <c r="J66" s="2">
-        <v>2</v>
-      </c>
-      <c r="K66" s="2">
-        <v>3</v>
-      </c>
-      <c r="L66" s="2">
-        <v>8</v>
-      </c>
-      <c r="M66" s="2">
-        <v>12</v>
-      </c>
-      <c r="P66" s="2" t="s">
+      <c r="K68" s="2">
+        <v>9</v>
+      </c>
+      <c r="L68" s="2">
+        <v>9</v>
+      </c>
+      <c r="M68" s="2">
+        <v>10</v>
+      </c>
+      <c r="N68" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="Q66" s="2">
-        <v>1</v>
-      </c>
-      <c r="R66" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="S66" s="2">
-        <v>2</v>
-      </c>
-      <c r="T66" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="U66" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A67" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" s="23">
-        <v>4</v>
-      </c>
-      <c r="C67" s="27">
-        <v>5</v>
-      </c>
-      <c r="D67" s="2">
-        <v>5</v>
-      </c>
-      <c r="E67" s="2">
-        <v>7</v>
-      </c>
-      <c r="F67" s="2">
-        <v>2</v>
-      </c>
-      <c r="G67" s="2">
-        <v>3</v>
-      </c>
-      <c r="H67" s="23">
-        <v>6</v>
-      </c>
-      <c r="I67" s="27">
-        <v>7</v>
-      </c>
-      <c r="J67" s="2">
-        <v>8</v>
-      </c>
-      <c r="K67" s="2">
-        <v>9</v>
-      </c>
-      <c r="L67" s="2">
-        <v>9</v>
-      </c>
-      <c r="M67" s="2">
-        <v>10</v>
-      </c>
-      <c r="N67" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="O67" s="2">
-        <v>2</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>2</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="S67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="23">
-        <v>2</v>
-      </c>
-      <c r="C68" s="2">
-        <v>3</v>
-      </c>
-      <c r="D68" s="2">
-        <v>3</v>
-      </c>
-      <c r="E68" s="2">
-        <v>5</v>
-      </c>
-      <c r="H68" s="23">
-        <v>2</v>
-      </c>
-      <c r="I68" s="2">
-        <v>3</v>
-      </c>
-      <c r="J68" s="2">
-        <v>3</v>
-      </c>
-      <c r="K68" s="2">
-        <v>4</v>
+      <c r="O68" s="2">
+        <v>2</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="Q68" s="2">
+        <v>2</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="S68" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B69" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="2">
-        <v>2</v>
-      </c>
-      <c r="F69" s="2">
-        <v>4</v>
-      </c>
-      <c r="G69" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H69" s="23">
         <v>2</v>
@@ -11692,95 +11830,83 @@
         <v>3</v>
       </c>
       <c r="K69" s="2">
-        <v>5</v>
-      </c>
-      <c r="L69" s="2">
-        <v>6</v>
-      </c>
-      <c r="M69" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="Q69" s="2">
         <v>1</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S69" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="B70" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C70" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D70" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E70" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H70" s="23">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I70" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J70" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K70" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N70" s="23" t="s">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c r="O70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="Q70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B71" s="23">
         <v>1</v>
       </c>
       <c r="C71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F71" s="2">
         <v>4</v>
       </c>
       <c r="G71" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H71" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J71" s="2">
         <v>3</v>
@@ -11789,48 +11915,42 @@
         <v>5</v>
       </c>
       <c r="L71" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M71" s="2">
         <v>9</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="Q71" s="2">
         <v>1</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="S71" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B72" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2">
-        <v>5</v>
-      </c>
-      <c r="F72" s="2">
-        <v>5</v>
-      </c>
-      <c r="G72" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H72" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I72" s="2">
         <v>5</v>
@@ -11841,73 +11961,67 @@
       <c r="K72" s="2">
         <v>6</v>
       </c>
-      <c r="L72" s="2">
-        <v>8</v>
-      </c>
-      <c r="M72" s="2">
-        <v>10</v>
+      <c r="N72" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O72" s="2">
+        <v>2</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="Q72" s="2">
         <v>1</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="S72" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B73" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" s="2">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2">
+        <v>4</v>
+      </c>
+      <c r="G73" s="2">
+        <v>7</v>
+      </c>
+      <c r="H73" s="23">
+        <v>3</v>
+      </c>
+      <c r="I73" s="2">
+        <v>4</v>
+      </c>
+      <c r="J73" s="2">
+        <v>3</v>
+      </c>
+      <c r="K73" s="2">
         <v>5</v>
       </c>
-      <c r="F73" s="2">
-        <v>5</v>
-      </c>
-      <c r="G73" s="2">
-        <v>9</v>
-      </c>
-      <c r="H73" s="23">
-        <v>4</v>
-      </c>
-      <c r="I73" s="2">
-        <v>5</v>
-      </c>
-      <c r="J73" s="2">
-        <v>4</v>
-      </c>
-      <c r="K73" s="2">
-        <v>6</v>
-      </c>
       <c r="L73" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M73" s="2">
         <v>9</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q73" s="2">
         <v>1</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="S73" s="2">
         <v>2</v>
@@ -11915,7 +12029,7 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B74" s="23">
         <v>2</v>
@@ -11924,63 +12038,69 @@
         <v>3</v>
       </c>
       <c r="D74" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F74" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G74" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H74" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I74" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J74" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K74" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L74" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M74" s="2">
         <v>10</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="Q74" s="2">
         <v>1</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="S74" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B75" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" s="2">
         <v>3</v>
       </c>
       <c r="E75" s="2">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="F75" s="2">
+        <v>5</v>
+      </c>
+      <c r="G75" s="2">
+        <v>9</v>
       </c>
       <c r="H75" s="23">
         <v>4</v>
@@ -11989,136 +12109,136 @@
         <v>5</v>
       </c>
       <c r="J75" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K75" s="2">
-        <v>10</v>
-      </c>
-      <c r="N75" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="O75" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="L75" s="2">
+        <v>7</v>
+      </c>
+      <c r="M75" s="2">
+        <v>9</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="Q75" s="2">
         <v>1</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="S75" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B76" s="23">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>4</v>
+      </c>
+      <c r="F76" s="2">
+        <v>3</v>
+      </c>
+      <c r="G76" s="2">
+        <v>7</v>
+      </c>
+      <c r="H76" s="23">
+        <v>3</v>
+      </c>
+      <c r="I76" s="2">
+        <v>3</v>
+      </c>
+      <c r="J76" s="2">
+        <v>3</v>
+      </c>
+      <c r="K76" s="2">
         <v>5</v>
       </c>
-      <c r="C76" s="2">
-        <v>8</v>
-      </c>
-      <c r="D76" s="2">
-        <v>7</v>
-      </c>
-      <c r="E76" s="2">
-        <v>9</v>
-      </c>
-      <c r="F76" s="2">
-        <v>8</v>
-      </c>
-      <c r="G76" s="2">
-        <v>12</v>
-      </c>
-      <c r="H76" s="23">
+      <c r="L76" s="2">
+        <v>5</v>
+      </c>
+      <c r="M76" s="2">
         <v>10</v>
       </c>
-      <c r="I76" s="2">
-        <v>20</v>
-      </c>
-      <c r="J76" s="2">
-        <v>14</v>
-      </c>
-      <c r="K76" s="2">
-        <v>28</v>
-      </c>
-      <c r="L76" s="2">
-        <v>20</v>
-      </c>
-      <c r="M76" s="2">
-        <v>40</v>
-      </c>
-      <c r="N76" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="O76" s="2">
-        <v>1</v>
-      </c>
       <c r="P76" s="2" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="Q76" s="2">
         <v>1</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S76" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B77" s="23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C77" s="2">
+        <v>4</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2">
+        <v>7</v>
+      </c>
+      <c r="H77" s="23">
+        <v>4</v>
+      </c>
+      <c r="I77" s="2">
+        <v>5</v>
+      </c>
+      <c r="J77" s="2">
+        <v>5</v>
+      </c>
+      <c r="K77" s="2">
         <v>10</v>
       </c>
-      <c r="D77" s="2">
-        <v>9</v>
-      </c>
-      <c r="E77" s="2">
-        <v>12</v>
-      </c>
-      <c r="H77" s="23">
-        <v>15</v>
-      </c>
-      <c r="I77" s="2">
-        <v>30</v>
-      </c>
-      <c r="J77" s="2">
-        <v>16</v>
-      </c>
-      <c r="K77" s="2">
-        <v>32</v>
-      </c>
       <c r="N77" s="23" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="O77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="Q77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B78" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C78" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E78" s="2">
         <v>9</v>
@@ -12130,86 +12250,86 @@
         <v>12</v>
       </c>
       <c r="H78" s="23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I78" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J78" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K78" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L78" s="2">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M78" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N78" s="23" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="O78" s="2">
         <v>1</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="Q78" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="S78" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B79" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" s="2">
+        <v>10</v>
+      </c>
+      <c r="D79" s="2">
         <v>9</v>
-      </c>
-      <c r="D79" s="2">
-        <v>8</v>
       </c>
       <c r="E79" s="2">
         <v>12</v>
       </c>
       <c r="H79" s="23">
+        <v>15</v>
+      </c>
+      <c r="I79" s="2">
+        <v>30</v>
+      </c>
+      <c r="J79" s="2">
         <v>16</v>
       </c>
-      <c r="I79" s="2">
-        <v>24</v>
-      </c>
-      <c r="J79" s="2">
-        <v>28</v>
-      </c>
       <c r="K79" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N79" s="23" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="O79" s="2">
         <v>2</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="Q79" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B80" s="23">
         <v>4</v>
@@ -12230,45 +12350,45 @@
         <v>12</v>
       </c>
       <c r="H80" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I80" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J80" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K80" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L80" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M80" s="2">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N80" s="23" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="O80" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q80" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S80" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B81" s="23">
         <v>6</v>
@@ -12283,166 +12403,151 @@
         <v>12</v>
       </c>
       <c r="H81" s="23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I81" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J81" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K81" s="2">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N81" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O81" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q81" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="B82" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C82" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D82" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E82" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F82" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G82" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H82" s="23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I82" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J82" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K82" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L82" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M82" s="2">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="N82" s="23" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="O82" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>214</v>
+        <v>81</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>1</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="S82" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="B83" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C83" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E83" s="2">
-        <v>3</v>
-      </c>
-      <c r="F83" s="2">
-        <v>3</v>
-      </c>
-      <c r="G83" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H83" s="23">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I83" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J83" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="K83" s="2">
-        <v>4</v>
-      </c>
-      <c r="L83" s="2">
-        <v>4</v>
-      </c>
-      <c r="M83" s="2">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="N83" s="23" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="O83" s="2">
         <v>1</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="Q83" s="2">
-        <v>1</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="S83" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="B84" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G84" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H84" s="23">
         <v>1</v>
@@ -12454,87 +12559,84 @@
         <v>1</v>
       </c>
       <c r="K84" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L84" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M84" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N84" s="23" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="O84" s="2">
         <v>1</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q84" s="2">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="S84" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B85" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F85" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G85" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H85" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J85" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K85" s="2">
+        <v>4</v>
+      </c>
+      <c r="L85" s="2">
+        <v>4</v>
+      </c>
+      <c r="M85" s="2">
         <v>8</v>
       </c>
-      <c r="L85" s="2">
-        <v>10</v>
-      </c>
-      <c r="M85" s="2">
-        <v>18</v>
-      </c>
       <c r="N85" s="23" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="O85" s="2">
         <v>1</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="Q85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="S85" s="2">
         <v>3</v>
@@ -12542,48 +12644,66 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B86" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E86" s="2">
+        <v>3</v>
+      </c>
+      <c r="F86" s="2">
         <v>6</v>
       </c>
+      <c r="G86" s="2">
+        <v>12</v>
+      </c>
       <c r="H86" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I86" s="2">
+        <v>2</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1</v>
+      </c>
+      <c r="K86" s="2">
+        <v>4</v>
+      </c>
+      <c r="L86" s="2">
         <v>8</v>
       </c>
-      <c r="J86" s="2">
-        <v>8</v>
-      </c>
-      <c r="K86" s="2">
-        <v>12</v>
+      <c r="M86" s="2">
+        <v>16</v>
       </c>
       <c r="N86" s="23" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="O86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="Q86" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S86" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="B87" s="23">
         <v>2</v>
@@ -12592,10 +12712,16 @@
         <v>3</v>
       </c>
       <c r="D87" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E87" s="2">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F87" s="2">
+        <v>5</v>
+      </c>
+      <c r="G87" s="2">
+        <v>9</v>
       </c>
       <c r="H87" s="23">
         <v>3</v>
@@ -12609,128 +12735,116 @@
       <c r="K87" s="2">
         <v>8</v>
       </c>
+      <c r="L87" s="2">
+        <v>10</v>
+      </c>
+      <c r="M87" s="2">
+        <v>18</v>
+      </c>
       <c r="N87" s="23" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="O87" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q87" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="S87" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B88" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" s="2">
-        <v>1</v>
-      </c>
-      <c r="G88" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H88" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I88" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J88" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K88" s="2">
-        <v>2</v>
-      </c>
-      <c r="L88" s="2">
-        <v>2</v>
-      </c>
-      <c r="M88" s="2">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="N88" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="O88" s="2">
+        <v>2</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="Q88" s="2">
-        <v>1</v>
-      </c>
-      <c r="R88" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="S88" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B89" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E89" s="2">
-        <v>2</v>
-      </c>
-      <c r="F89" s="2">
-        <v>1</v>
-      </c>
-      <c r="G89" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H89" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J89" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K89" s="2">
-        <v>2</v>
-      </c>
-      <c r="L89" s="2">
-        <v>2</v>
-      </c>
-      <c r="M89" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="N89" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O89" s="2">
+        <v>2</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="Q89" s="2">
-        <v>1</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S89" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="B90" s="23">
         <v>1</v>
@@ -12742,351 +12856,369 @@
         <v>1</v>
       </c>
       <c r="E90" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G90" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H90" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
       </c>
       <c r="K90" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L90" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M90" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="Q90" s="2">
         <v>1</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="S90" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B91" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E91" s="2">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2">
+        <v>2</v>
       </c>
       <c r="H91" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J91" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K91" s="2">
-        <v>9</v>
-      </c>
-      <c r="N91" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O91" s="2">
+        <v>2</v>
+      </c>
+      <c r="L91" s="2">
+        <v>2</v>
+      </c>
+      <c r="M91" s="2">
         <v>3</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q91" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S91" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="B92" s="23">
         <v>1</v>
       </c>
       <c r="C92" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" s="2">
         <v>3</v>
       </c>
       <c r="G92" s="2">
+        <v>7</v>
+      </c>
+      <c r="H92" s="23">
+        <v>1</v>
+      </c>
+      <c r="I92" s="2">
+        <v>2</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1</v>
+      </c>
+      <c r="K92" s="2">
+        <v>3</v>
+      </c>
+      <c r="L92" s="2">
         <v>5</v>
-      </c>
-      <c r="H92" s="23">
-        <v>2</v>
-      </c>
-      <c r="I92" s="2">
-        <v>2</v>
-      </c>
-      <c r="J92" s="2">
-        <v>3</v>
-      </c>
-      <c r="K92" s="2">
-        <v>4</v>
-      </c>
-      <c r="L92" s="2">
-        <v>6</v>
       </c>
       <c r="M92" s="2">
         <v>9</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="2">
         <v>1</v>
       </c>
       <c r="R92" s="2" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="S92" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="B93" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E93" s="2">
-        <v>3</v>
-      </c>
-      <c r="F93" s="2">
+        <v>9</v>
+      </c>
+      <c r="H93" s="23">
+        <v>3</v>
+      </c>
+      <c r="I93" s="2">
+        <v>5</v>
+      </c>
+      <c r="J93" s="2">
         <v>6</v>
       </c>
-      <c r="G93" s="2">
-        <v>12</v>
-      </c>
-      <c r="H93" s="23">
-        <v>2</v>
-      </c>
-      <c r="I93" s="2">
-        <v>2</v>
-      </c>
-      <c r="J93" s="2">
-        <v>3</v>
-      </c>
       <c r="K93" s="2">
-        <v>4</v>
-      </c>
-      <c r="L93" s="2">
-        <v>10</v>
-      </c>
-      <c r="M93" s="2">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="N93" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="O93" s="2">
+        <v>3</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="Q93" s="2">
-        <v>1</v>
-      </c>
-      <c r="R93" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="S93" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="B94" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94" s="2">
+        <v>3</v>
+      </c>
+      <c r="F94" s="2">
+        <v>3</v>
+      </c>
+      <c r="G94" s="2">
         <v>5</v>
       </c>
       <c r="H94" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J94" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K94" s="2">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="L94" s="2">
+        <v>6</v>
+      </c>
+      <c r="M94" s="2">
+        <v>9</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="Q94" s="2">
         <v>1</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="S94" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B95" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C95" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95" s="2">
+        <v>3</v>
+      </c>
+      <c r="F95" s="2">
         <v>6</v>
       </c>
+      <c r="G95" s="2">
+        <v>12</v>
+      </c>
       <c r="H95" s="23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I95" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J95" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K95" s="2">
+        <v>4</v>
+      </c>
+      <c r="L95" s="2">
         <v>10</v>
       </c>
-      <c r="N95" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="O95" s="2">
-        <v>2</v>
+      <c r="M95" s="2">
+        <v>20</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q95" s="2">
         <v>1</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="S95" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B96" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96" s="2">
-        <v>3</v>
-      </c>
-      <c r="F96" s="2">
-        <v>3</v>
-      </c>
-      <c r="G96" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H96" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I96" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J96" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K96" s="2">
-        <v>3</v>
-      </c>
-      <c r="L96" s="2">
-        <v>3</v>
-      </c>
-      <c r="M96" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q96" s="2">
         <v>1</v>
-      </c>
-      <c r="R96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S96" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="B97" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E97" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H97" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I97" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J97" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K97" s="2">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="N97" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O97" s="2">
+        <v>2</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="Q97" s="2">
         <v>1</v>
@@ -13094,25 +13226,25 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B98" s="23">
         <v>1</v>
       </c>
       <c r="C98" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="2">
         <v>1</v>
       </c>
       <c r="E98" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F98" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G98" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H98" s="23">
         <v>1</v>
@@ -13130,16 +13262,16 @@
         <v>3</v>
       </c>
       <c r="M98" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q98" s="2">
         <v>1</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S98" s="2">
         <v>2</v>
@@ -13147,31 +13279,25 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B99" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D99" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" s="2">
-        <v>3</v>
-      </c>
-      <c r="F99" s="2">
-        <v>3</v>
-      </c>
-      <c r="G99" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H99" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J99" s="2">
         <v>3</v>
@@ -13179,34 +13305,22 @@
       <c r="K99" s="2">
         <v>5</v>
       </c>
-      <c r="L99" s="2">
-        <v>4</v>
-      </c>
-      <c r="M99" s="2">
-        <v>8</v>
-      </c>
       <c r="P99" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q99" s="2">
         <v>1</v>
-      </c>
-      <c r="R99" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="S99" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B100" s="23">
         <v>1</v>
       </c>
       <c r="C100" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="2">
         <v>1</v>
@@ -13215,10 +13329,10 @@
         <v>2</v>
       </c>
       <c r="F100" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H100" s="23">
         <v>1</v>
@@ -13239,13 +13353,13 @@
         <v>5</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q100" s="2">
         <v>1</v>
       </c>
       <c r="R100" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S100" s="2">
         <v>2</v>
@@ -13253,230 +13367,242 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B101" s="23">
         <v>1</v>
       </c>
       <c r="C101" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" s="2">
+        <v>3</v>
+      </c>
+      <c r="G101" s="2">
+        <v>6</v>
+      </c>
+      <c r="H101" s="23">
+        <v>1</v>
+      </c>
+      <c r="I101" s="2">
+        <v>2</v>
+      </c>
+      <c r="J101" s="2">
+        <v>3</v>
+      </c>
+      <c r="K101" s="2">
         <v>5</v>
       </c>
-      <c r="G101" s="2">
-        <v>11</v>
-      </c>
-      <c r="H101" s="23">
-        <v>2</v>
-      </c>
-      <c r="I101" s="2">
-        <v>3</v>
-      </c>
-      <c r="J101" s="2">
-        <v>4</v>
-      </c>
-      <c r="K101" s="2">
+      <c r="L101" s="2">
+        <v>4</v>
+      </c>
+      <c r="M101" s="2">
         <v>8</v>
       </c>
-      <c r="L101" s="2">
-        <v>5</v>
-      </c>
-      <c r="M101" s="2">
-        <v>10</v>
-      </c>
       <c r="P101" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q101" s="2">
         <v>1</v>
       </c>
       <c r="R101" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S101" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B102" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102" s="2">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2">
+        <v>2</v>
+      </c>
+      <c r="F102" s="2">
+        <v>3</v>
+      </c>
+      <c r="G102" s="2">
+        <v>6</v>
+      </c>
+      <c r="H102" s="23">
+        <v>1</v>
+      </c>
+      <c r="I102" s="2">
+        <v>2</v>
+      </c>
+      <c r="J102" s="2">
+        <v>2</v>
+      </c>
+      <c r="K102" s="2">
+        <v>3</v>
+      </c>
+      <c r="L102" s="2">
+        <v>3</v>
+      </c>
+      <c r="M102" s="2">
         <v>5</v>
       </c>
-      <c r="D102" s="2">
-        <v>3</v>
-      </c>
-      <c r="E102" s="2">
-        <v>7</v>
-      </c>
-      <c r="H102" s="23">
-        <v>3</v>
-      </c>
-      <c r="I102" s="2">
-        <v>4</v>
-      </c>
-      <c r="J102" s="2">
-        <v>5</v>
-      </c>
-      <c r="K102" s="2">
-        <v>9</v>
-      </c>
       <c r="P102" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q102" s="2">
         <v>1</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S102" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="B103" s="23">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2">
+        <v>2</v>
+      </c>
+      <c r="E103" s="2">
+        <v>4</v>
+      </c>
+      <c r="F103" s="2">
         <v>5</v>
       </c>
-      <c r="C103" s="2">
-        <v>6</v>
-      </c>
-      <c r="D103" s="2">
-        <v>6</v>
-      </c>
-      <c r="E103" s="2">
-        <v>12</v>
+      <c r="G103" s="2">
+        <v>11</v>
       </c>
       <c r="H103" s="23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I103" s="2">
+        <v>3</v>
+      </c>
+      <c r="J103" s="2">
+        <v>4</v>
+      </c>
+      <c r="K103" s="2">
         <v>8</v>
       </c>
-      <c r="J103" s="2">
-        <v>9</v>
-      </c>
-      <c r="K103" s="2">
-        <v>12</v>
-      </c>
-      <c r="N103" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="O103" s="2">
-        <v>2</v>
+      <c r="L103" s="2">
+        <v>5</v>
+      </c>
+      <c r="M103" s="2">
+        <v>10</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q103" s="2">
         <v>1</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S103" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B104" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C104" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D104" s="2">
         <v>3</v>
       </c>
       <c r="E104" s="2">
-        <v>5</v>
-      </c>
-      <c r="F104" s="2">
-        <v>5</v>
-      </c>
-      <c r="G104" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H104" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J104" s="2">
         <v>5</v>
       </c>
       <c r="K104" s="2">
-        <v>7</v>
-      </c>
-      <c r="L104" s="2">
-        <v>10</v>
-      </c>
-      <c r="M104" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q104" s="2">
-        <v>1</v>
-      </c>
-      <c r="R104" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="S104" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="B105" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C105" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D105" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E105" s="2">
+        <v>12</v>
+      </c>
+      <c r="H105" s="23">
+        <v>6</v>
+      </c>
+      <c r="I105" s="2">
         <v>8</v>
       </c>
-      <c r="H105" s="23">
-        <v>5</v>
-      </c>
-      <c r="I105" s="2">
-        <v>7</v>
-      </c>
       <c r="J105" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K105" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N105" s="23" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="O105" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q105" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B106" s="23">
         <v>2</v>
@@ -13491,10 +13617,10 @@
         <v>5</v>
       </c>
       <c r="F106" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G106" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H106" s="23">
         <v>4</v>
@@ -13503,39 +13629,33 @@
         <v>5</v>
       </c>
       <c r="J106" s="2">
+        <v>5</v>
+      </c>
+      <c r="K106" s="2">
         <v>7</v>
-      </c>
-      <c r="K106" s="2">
-        <v>10</v>
       </c>
       <c r="L106" s="2">
         <v>10</v>
       </c>
       <c r="M106" s="2">
-        <v>20</v>
-      </c>
-      <c r="N106" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="O106" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q106" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S106" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B107" s="23">
         <v>3</v>
@@ -13553,30 +13673,30 @@
         <v>5</v>
       </c>
       <c r="I107" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J107" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K107" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N107" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O107" s="2">
         <v>1</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q107" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B108" s="23">
         <v>2</v>
@@ -13591,51 +13711,57 @@
         <v>5</v>
       </c>
       <c r="F108" s="2">
+        <v>8</v>
+      </c>
+      <c r="G108" s="2">
+        <v>14</v>
+      </c>
+      <c r="H108" s="23">
+        <v>4</v>
+      </c>
+      <c r="I108" s="2">
         <v>5</v>
       </c>
-      <c r="G108" s="2">
-        <v>13</v>
-      </c>
-      <c r="H108" s="23">
-        <v>5</v>
-      </c>
-      <c r="I108" s="2">
-        <v>6</v>
-      </c>
       <c r="J108" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K108" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L108" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M108" s="2">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="N108" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O108" s="2">
+        <v>1</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q108" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S108" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B109" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D109" s="2">
         <v>4</v>
@@ -13644,172 +13770,267 @@
         <v>8</v>
       </c>
       <c r="H109" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I109" s="2">
         <v>8</v>
       </c>
       <c r="J109" s="2">
+        <v>8</v>
+      </c>
+      <c r="K109" s="2">
         <v>10</v>
       </c>
-      <c r="K109" s="2">
-        <v>12</v>
-      </c>
       <c r="N109" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O109" s="2">
         <v>1</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q109" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B110" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D110" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E110" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F110" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G110" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H110" s="23">
+        <v>5</v>
+      </c>
+      <c r="I110" s="2">
         <v>6</v>
       </c>
-      <c r="I110" s="2">
-        <v>10</v>
-      </c>
       <c r="J110" s="2">
+        <v>6</v>
+      </c>
+      <c r="K110" s="2">
+        <v>8</v>
+      </c>
+      <c r="L110" s="2">
         <v>12</v>
       </c>
-      <c r="K110" s="2">
-        <v>15</v>
-      </c>
-      <c r="L110" s="2">
-        <v>15</v>
-      </c>
       <c r="M110" s="2">
-        <v>22</v>
-      </c>
-      <c r="N110" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="O110" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q110" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S110" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B111" s="23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C111" s="2">
+        <v>3</v>
+      </c>
+      <c r="D111" s="2">
+        <v>4</v>
+      </c>
+      <c r="E111" s="2">
+        <v>8</v>
+      </c>
+      <c r="H111" s="23">
         <v>6</v>
       </c>
-      <c r="D111" s="2">
-        <v>7</v>
-      </c>
-      <c r="E111" s="2">
+      <c r="I111" s="2">
+        <v>8</v>
+      </c>
+      <c r="J111" s="2">
         <v>10</v>
       </c>
-      <c r="H111" s="23">
-        <v>10</v>
-      </c>
-      <c r="I111" s="2">
-        <v>15</v>
-      </c>
-      <c r="J111" s="2">
-        <v>14</v>
-      </c>
       <c r="K111" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N111" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O111" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q111" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="B112" s="23">
+        <v>3</v>
+      </c>
+      <c r="C112" s="2">
+        <v>4</v>
+      </c>
+      <c r="D112" s="2">
+        <v>4</v>
+      </c>
+      <c r="E112" s="2">
         <v>7</v>
       </c>
-      <c r="C112" s="2">
+      <c r="F112" s="2">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2">
+        <v>15</v>
+      </c>
+      <c r="H112" s="23">
+        <v>6</v>
+      </c>
+      <c r="I112" s="2">
+        <v>10</v>
+      </c>
+      <c r="J112" s="2">
+        <v>12</v>
+      </c>
+      <c r="K112" s="2">
+        <v>15</v>
+      </c>
+      <c r="L112" s="2">
+        <v>15</v>
+      </c>
+      <c r="M112" s="2">
+        <v>22</v>
+      </c>
+      <c r="N112" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O112" s="2">
+        <v>1</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>2</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" s="23">
+        <v>5</v>
+      </c>
+      <c r="C113" s="2">
+        <v>6</v>
+      </c>
+      <c r="D113" s="2">
+        <v>7</v>
+      </c>
+      <c r="E113" s="2">
+        <v>10</v>
+      </c>
+      <c r="H113" s="23">
+        <v>10</v>
+      </c>
+      <c r="I113" s="2">
+        <v>15</v>
+      </c>
+      <c r="J113" s="2">
+        <v>14</v>
+      </c>
+      <c r="K113" s="2">
+        <v>18</v>
+      </c>
+      <c r="N113" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O113" s="2">
+        <v>3</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A114" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B114" s="23">
+        <v>7</v>
+      </c>
+      <c r="C114" s="2">
         <v>9</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D114" s="2">
         <v>8</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E114" s="2">
         <v>10</v>
       </c>
-      <c r="H112" s="23">
+      <c r="H114" s="23">
         <v>20</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I114" s="2">
         <v>24</v>
       </c>
-      <c r="J112" s="2">
+      <c r="J114" s="2">
         <v>30</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K114" s="2">
         <v>40</v>
       </c>
-      <c r="N112" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="O112" s="2">
-        <v>2</v>
-      </c>
-      <c r="P112" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q112" s="2">
+      <c r="N114" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O114" s="2">
+        <v>2</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q114" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="1clnV7PacIIERpXSoQO+hq5xEpSTN/Z8qv9kcwmNlOUhnKctw83+t49flcCgB5OXslvHKzivIFOuOGfb+k8E7g==" saltValue="AQ6yuQci/ZRzLTWFtPaJBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
